--- a/Data/UK Unemployment.xlsx
+++ b/Data/UK Unemployment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Modelling\Ventity\Urban1\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EFFF73-7CAE-439C-BA05-6F09EA9B2367}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59A2D99-741A-4682-AC84-67752EBFDB4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B77BA640-AA93-49E8-8229-5CF7C9C7308D}"/>
+    <workbookView minimized="1" xWindow="600" yWindow="0" windowWidth="20325" windowHeight="11745" xr2:uid="{B77BA640-AA93-49E8-8229-5CF7C9C7308D}"/>
   </bookViews>
   <sheets>
     <sheet name="UK" sheetId="1" r:id="rId1"/>
@@ -88,7 +88,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -135,15 +135,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -463,7 +463,7 @@
   <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,6 +474,7 @@
     <col min="4" max="4" width="18.140625" customWidth="1"/>
     <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="21" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="21" bestFit="1" customWidth="1"/>
   </cols>
@@ -584,11 +585,11 @@
         <v>0.38129999999999997</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H67" si="0">G4*D4/C4*0.07*2.393758</f>
+        <f>G4*D4/C4*0.07*2.393758</f>
         <v>269.22711885742729</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I67" si="1">F4*D4/C4*0.07*2.393758</f>
+        <f t="shared" ref="I4:I67" si="0">F4*D4/C4*0.07*2.393758</f>
         <v>385.94162907807441</v>
       </c>
     </row>
@@ -615,11 +616,11 @@
         <v>0.38129999999999997</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H4:H67" si="1">G5*D5/C5*0.07*2.393758</f>
         <v>270.42246406352126</v>
       </c>
       <c r="I5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>387.65517665124764</v>
       </c>
     </row>
@@ -646,11 +647,11 @@
         <v>0.38129999999999997</v>
       </c>
       <c r="H6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>264.69705091953193</v>
       </c>
       <c r="I6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>379.44770005931321</v>
       </c>
     </row>
@@ -677,11 +678,11 @@
         <v>0.38129999999999997</v>
       </c>
       <c r="H7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>265.85962655358412</v>
       </c>
       <c r="I7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>381.11427189664073</v>
       </c>
     </row>
@@ -708,11 +709,11 @@
         <v>0.38129999999999997</v>
       </c>
       <c r="H8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>272.35184885373025</v>
       </c>
       <c r="I8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>390.4209823851271</v>
       </c>
     </row>
@@ -739,11 +740,11 @@
         <v>0.38129999999999997</v>
       </c>
       <c r="H9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>276.25738433957514</v>
       </c>
       <c r="I9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>396.01963356939888</v>
       </c>
     </row>
@@ -770,11 +771,11 @@
         <v>0.38129999999999997</v>
       </c>
       <c r="H10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>280.06472198077364</v>
       </c>
       <c r="I10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>401.47751648227347</v>
       </c>
     </row>
@@ -801,11 +802,11 @@
         <v>0.38679749740647301</v>
       </c>
       <c r="H11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>269.92628787759702</v>
       </c>
       <c r="I11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>377.64316644507079</v>
       </c>
     </row>
@@ -832,11 +833,11 @@
         <v>0.39229499481294611</v>
       </c>
       <c r="H12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>278.48536016212677</v>
       </c>
       <c r="I12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>380.29111636737679</v>
       </c>
     </row>
@@ -863,11 +864,11 @@
         <v>0.39779249221941915</v>
       </c>
       <c r="H13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>287.74882301272754</v>
       </c>
       <c r="I13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>383.57043443524054</v>
       </c>
     </row>
@@ -894,11 +895,11 @@
         <v>0.40328998962589219</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>299.42016045780832</v>
       </c>
       <c r="I14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>389.64354960370156</v>
       </c>
     </row>
@@ -925,11 +926,11 @@
         <v>0.40878748703236528</v>
       </c>
       <c r="H15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>307.06985787205326</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>390.13278455967378</v>
       </c>
     </row>
@@ -956,11 +957,11 @@
         <v>0.41428498443883832</v>
       </c>
       <c r="H16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>323.57883055043965</v>
       </c>
       <c r="I16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>401.39776351166762</v>
       </c>
     </row>
@@ -987,11 +988,11 @@
         <v>0.41978248184531142</v>
       </c>
       <c r="H17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>332.35912319914513</v>
       </c>
       <c r="I17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>402.57771543876777</v>
       </c>
     </row>
@@ -1018,11 +1019,11 @@
         <v>0.42527997925178446</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>356.05050900241082</v>
       </c>
       <c r="I18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>421.13919883583071</v>
       </c>
     </row>
@@ -1049,11 +1050,11 @@
         <v>0.4307774766582575</v>
       </c>
       <c r="H19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>366.26652050351601</v>
       </c>
       <c r="I19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>423.06281894522272</v>
       </c>
     </row>
@@ -1080,11 +1081,11 @@
         <v>0.43627497406473059</v>
       </c>
       <c r="H20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>373.17194420456627</v>
       </c>
       <c r="I20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>420.94842718490361</v>
       </c>
     </row>
@@ -1111,11 +1112,11 @@
         <v>0.44177247147120363</v>
       </c>
       <c r="H21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>386.48353138631444</v>
       </c>
       <c r="I21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>425.7737942510276</v>
       </c>
     </row>
@@ -1142,11 +1143,11 @@
         <v>0.44726996887767667</v>
       </c>
       <c r="H22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>353.199330087357</v>
       </c>
       <c r="I22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>380.02195759060288</v>
       </c>
     </row>
@@ -1173,11 +1174,11 @@
         <v>0.45276746628414977</v>
       </c>
       <c r="H23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>327.85503934933473</v>
       </c>
       <c r="I23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>344.52563457048734</v>
       </c>
     </row>
@@ -1204,11 +1205,11 @@
         <v>0.40112943385058869</v>
       </c>
       <c r="H24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>259.60025142229739</v>
       </c>
       <c r="I24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>334.17073784484006</v>
       </c>
     </row>
@@ -1235,11 +1236,11 @@
         <v>0.40259059114668827</v>
       </c>
       <c r="H25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>274.16740252012073</v>
       </c>
       <c r="I25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>365.22601541257785</v>
       </c>
     </row>
@@ -1266,11 +1267,11 @@
         <v>0.41186650353107163</v>
       </c>
       <c r="H26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>287.71359346468057</v>
       </c>
       <c r="I26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>377.89248096853572</v>
       </c>
     </row>
@@ -1297,11 +1298,11 @@
         <v>0.4149401129481185</v>
       </c>
       <c r="H27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>302.01481822435011</v>
       </c>
       <c r="I27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>393.03298262072946</v>
       </c>
     </row>
@@ -1328,11 +1329,11 @@
         <v>0.40559994118223697</v>
       </c>
       <c r="H28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>305.03731290054316</v>
       </c>
       <c r="I28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>406.00036717044122</v>
       </c>
     </row>
@@ -1359,11 +1360,11 @@
         <v>0.38695279745738603</v>
       </c>
       <c r="H29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>280.42753201908926</v>
       </c>
       <c r="I29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>407.60024859221056</v>
       </c>
     </row>
@@ -1390,11 +1391,11 @@
         <v>0.39699694828911963</v>
       </c>
       <c r="H30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>310.06828657220893</v>
       </c>
       <c r="I30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>439.06405445773919</v>
       </c>
     </row>
@@ -1421,11 +1422,11 @@
         <v>0.38702578144337074</v>
       </c>
       <c r="H31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>303.46448903201343</v>
       </c>
       <c r="I31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>447.44399112749426</v>
       </c>
     </row>
@@ -1452,11 +1453,11 @@
         <v>0.38872214851733661</v>
       </c>
       <c r="H32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>313.10257161906588</v>
       </c>
       <c r="I32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>455.42192235500482</v>
       </c>
     </row>
@@ -1483,11 +1484,11 @@
         <v>0.3801964792388503</v>
       </c>
       <c r="H33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>302.43443711044068</v>
       </c>
       <c r="I33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>449.10864909962424</v>
       </c>
     </row>
@@ -1514,11 +1515,11 @@
         <v>0.36236767084235633</v>
       </c>
       <c r="H34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>272.83415729198936</v>
       </c>
       <c r="I34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>446.14628494764975</v>
       </c>
     </row>
@@ -1545,11 +1546,11 @@
         <v>0.359513001697426</v>
       </c>
       <c r="H35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>270.33129531079601</v>
       </c>
       <c r="I35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>449.12080181237661</v>
       </c>
     </row>
@@ -1576,11 +1577,11 @@
         <v>0.36161080654357264</v>
       </c>
       <c r="H36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>279.74892671131988</v>
       </c>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>461.19171650084496</v>
       </c>
     </row>
@@ -1607,11 +1608,11 @@
         <v>0.37296260390982439</v>
       </c>
       <c r="H37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>305.47606860944649</v>
       </c>
       <c r="I37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>476.24154924585582</v>
       </c>
     </row>
@@ -1638,11 +1639,11 @@
         <v>0.37681918080738747</v>
       </c>
       <c r="H38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>318.60337193250274</v>
       </c>
       <c r="I38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>491.96108901342336</v>
       </c>
     </row>
@@ -1669,11 +1670,11 @@
         <v>0.38682609154493602</v>
       </c>
       <c r="H39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>341.59484109225787</v>
       </c>
       <c r="I39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>508.14645005418919</v>
       </c>
     </row>
@@ -1700,11 +1701,11 @@
         <v>0.39824683303444397</v>
       </c>
       <c r="H40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>362.27683173153434</v>
       </c>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>518.09482387412993</v>
       </c>
     </row>
@@ -1731,11 +1732,11 @@
         <v>0.39942988950927211</v>
       </c>
       <c r="H41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>364.17527139302734</v>
       </c>
       <c r="I41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>508.00920211128198</v>
       </c>
     </row>
@@ -1762,11 +1763,11 @@
         <v>0.40281911492936323</v>
       </c>
       <c r="H42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>382.16611647654116</v>
       </c>
       <c r="I42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>523.91828856226857</v>
       </c>
     </row>
@@ -1793,11 +1794,11 @@
         <v>0.40620834034945441</v>
       </c>
       <c r="H43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>424.76198764267275</v>
       </c>
       <c r="I43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>572.27271689028669</v>
       </c>
     </row>
@@ -1824,11 +1825,11 @@
         <v>0.40959756576954554</v>
       </c>
       <c r="H44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>467.99945209037696</v>
       </c>
       <c r="I44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>619.64560832194354</v>
       </c>
     </row>
@@ -1855,11 +1856,11 @@
         <v>0.41298679118963671</v>
       </c>
       <c r="H45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>479.64357347760318</v>
       </c>
       <c r="I45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>624.09508221008764</v>
       </c>
     </row>
@@ -1886,11 +1887,11 @@
         <v>0.41637601660972784</v>
       </c>
       <c r="H46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>488.30425352903677</v>
       </c>
       <c r="I46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>624.38008621915037</v>
       </c>
     </row>
@@ -1917,11 +1918,11 @@
         <v>0.41976524202981902</v>
       </c>
       <c r="H47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>466.22683721009605</v>
       </c>
       <c r="I47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>585.83235227933551</v>
       </c>
     </row>
@@ -1948,11 +1949,11 @@
         <v>0.42315446744991014</v>
       </c>
       <c r="H48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>443.52636804006272</v>
       </c>
       <c r="I48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>547.64993597684031</v>
       </c>
     </row>
@@ -1979,11 +1980,11 @@
         <v>0.42654369287000132</v>
       </c>
       <c r="H49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>433.6525525897506</v>
       </c>
       <c r="I49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>526.1648156621236</v>
       </c>
     </row>
@@ -2010,11 +2011,11 @@
         <v>0.42993291829009245</v>
       </c>
       <c r="H50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>428.54584092522339</v>
       </c>
       <c r="I50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>510.9296106593215</v>
       </c>
     </row>
@@ -2041,11 +2042,11 @@
         <v>0.43332214371018363</v>
       </c>
       <c r="H51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>443.29740120319053</v>
       </c>
       <c r="I51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>519.31306931127767</v>
       </c>
     </row>
@@ -2072,11 +2073,11 @@
         <v>0.4403265504032563</v>
       </c>
       <c r="H52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>463.61674828954051</v>
       </c>
       <c r="I52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>525.40162179545553</v>
       </c>
     </row>
@@ -2103,11 +2104,11 @@
         <v>0.43894642873257872</v>
       </c>
       <c r="H53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>475.55400544377443</v>
       </c>
       <c r="I53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>550.29172337435216</v>
       </c>
     </row>
@@ -2134,11 +2135,11 @@
         <v>0.44268655902967802</v>
       </c>
       <c r="H54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>499.89749400693296</v>
       </c>
       <c r="I54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>576.18638445247336</v>
       </c>
     </row>
@@ -2165,11 +2166,11 @@
         <v>0.46501234028046562</v>
       </c>
       <c r="H55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>534.442940499614</v>
       </c>
       <c r="I55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>552.69807015263439</v>
       </c>
     </row>
@@ -2196,11 +2197,11 @@
         <v>0.47354354480978933</v>
       </c>
       <c r="H56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>573.78516398573811</v>
       </c>
       <c r="I56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>573.07736978674245</v>
       </c>
     </row>
@@ -2227,11 +2228,11 @@
         <v>0.47335721475217629</v>
       </c>
       <c r="H57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>595.70423501698087</v>
       </c>
       <c r="I57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>599.78545586184919</v>
       </c>
     </row>
@@ -2258,11 +2259,11 @@
         <v>0.47811107322113849</v>
       </c>
       <c r="H58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>622.54401914362813</v>
       </c>
       <c r="I58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>619.95716877321036</v>
       </c>
     </row>
@@ -2289,11 +2290,11 @@
         <v>0.47455618125763094</v>
       </c>
       <c r="H59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>627.30297445053884</v>
       </c>
       <c r="I59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>635.50846729891077</v>
       </c>
     </row>
@@ -2320,11 +2321,11 @@
         <v>0.47565272991125218</v>
       </c>
       <c r="H60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>637.87403407984016</v>
       </c>
       <c r="I60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>643.52482020769719</v>
       </c>
     </row>
@@ -2351,11 +2352,11 @@
         <v>0.47483340318346229</v>
       </c>
       <c r="H61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>640.01759060483084</v>
       </c>
       <c r="I61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>649.24491670085547</v>
       </c>
     </row>
@@ -2382,11 +2383,11 @@
         <v>0.47251625919781232</v>
       </c>
       <c r="H62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>656.42960498425691</v>
       </c>
       <c r="I62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>674.99478395189874</v>
       </c>
     </row>
@@ -2413,11 +2414,11 @@
         <v>0.47265137996428597</v>
       </c>
       <c r="H63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>693.69158047412395</v>
       </c>
       <c r="I63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>716.28318665337724</v>
       </c>
     </row>
@@ -2444,11 +2445,11 @@
         <v>0.46706402207707015</v>
       </c>
       <c r="H64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>699.14001614893641</v>
       </c>
       <c r="I64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>739.83101785018573</v>
       </c>
     </row>
@@ -2475,11 +2476,11 @@
         <v>0.46240286621493987</v>
       </c>
       <c r="H65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>694.38169298684875</v>
       </c>
       <c r="I65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>748.9439312793661</v>
       </c>
     </row>
@@ -2506,11 +2507,11 @@
         <v>0.45739317892313486</v>
       </c>
       <c r="H66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>694.74529437526417</v>
       </c>
       <c r="I66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>769.05776155906779</v>
       </c>
     </row>
@@ -2537,11 +2538,11 @@
         <v>0.46197304962823921</v>
       </c>
       <c r="H67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>736.48159725830521</v>
       </c>
       <c r="I67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>800.51890347336928</v>
       </c>
     </row>
